--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/tmp_BaoCaoTheoDoiChiTieuCapPhat.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/tmp_BaoCaoTheoDoiChiTieuCapPhat.xlsx
@@ -386,20 +386,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -410,17 +413,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,105 +704,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="Q1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="Q1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="Q2" s="20" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="Q2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -822,102 +825,102 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="10" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="15" t="s">
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="10" t="s">
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="10" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
@@ -930,17 +933,17 @@
       <c r="I9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -22363,6 +22366,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A5:T5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="R6:T6"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="C8:C9"/>
@@ -22379,17 +22393,6 @@
     <mergeCell ref="S7:S9"/>
     <mergeCell ref="T7:T9"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A5:T5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
